--- a/cta策略/result/螺纹/MACD_60min/wfo_最优两组参数的绩效.xlsx
+++ b/cta策略/result/螺纹/MACD_60min/wfo_最优两组参数的绩效.xlsx
@@ -420,16 +420,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05754102617792101</v>
+        <v>0.0533277626084685</v>
       </c>
       <c r="D2">
-        <v>0.1052729450714813</v>
+        <v>0.07326357879918576</v>
       </c>
       <c r="E2">
-        <v>0.2769196678427495</v>
+        <v>0.1708450501543659</v>
       </c>
       <c r="F2">
-        <v>0.375</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,13 +440,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.04800713366946341</v>
+        <v>0.03462816038649574</v>
       </c>
       <c r="D3">
-        <v>0.05560687693291548</v>
+        <v>-0.02899178052490272</v>
       </c>
       <c r="E3">
-        <v>0.1905003772373565</v>
+        <v>0.1167328341971487</v>
       </c>
       <c r="F3">
         <v>0.4375</v>
